--- a/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:09:22+00:00</t>
+    <t>2025-07-31T15:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:41:49+00:00</t>
+    <t>2025-07-31T16:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T16:47:22+00:00</t>
+    <t>2025-07-31T16:49:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/336-préparation-publivation-release-200-ballot/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T16:49:44+00:00</t>
+    <t>2025-08-21T11:38:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
